--- a/sample_vendor_table.xlsx
+++ b/sample_vendor_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ1"/>
+  <dimension ref="A1:AN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,215 +436,200 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>user</t>
+          <t>salutation</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>salutation</t>
+          <t>first_name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>first_name</t>
+          <t>last_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>last_name</t>
+          <t>company_name</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>company_name</t>
+          <t>email</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>vendor_display_name</t>
+          <t>work phone</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>vendor_email</t>
+          <t>mobile phone</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>vendor_wphone</t>
+          <t>skype_number</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>vendor_mphone</t>
+          <t>designation</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>skype_number</t>
+          <t>department</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>designation</t>
+          <t>website</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>department</t>
+          <t>gst_treatment</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>website</t>
+          <t>gst_number</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>gst_treatment</t>
+          <t>pan_number</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>gst_number</t>
+          <t>source_supply</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>pan_number</t>
+          <t>currency</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>source_supply</t>
+          <t>opening_balance</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>currency</t>
+          <t>opening_bal_type (credit/debit)</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>opening_bal</t>
+          <t>payment_terms</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>opening_bal_type</t>
+          <t>billing_attention</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>payment_terms</t>
+          <t>billing_street</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>battention</t>
+          <t>billing_country</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>bstreet</t>
+          <t>billing_address</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>bcountry</t>
+          <t>billing_city</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>baddress</t>
+          <t>billing_state</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>bcity</t>
+          <t>billing_pin</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>bstate</t>
+          <t>billing_zip</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>bpin</t>
+          <t>billing_phone</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>bzip</t>
+          <t>billing_fax</t>
         </is>
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
-          <t>bphone</t>
+          <t>shipping_attention</t>
         </is>
       </c>
       <c r="AE1" s="1" t="inlineStr">
         <is>
-          <t>bfax</t>
+          <t>shipping_street</t>
         </is>
       </c>
       <c r="AF1" s="1" t="inlineStr">
         <is>
-          <t>sattention</t>
+          <t>shipping_country</t>
         </is>
       </c>
       <c r="AG1" s="1" t="inlineStr">
         <is>
-          <t>sstreet</t>
+          <t>shipping_address</t>
         </is>
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>scountry</t>
+          <t>shipping_city</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
         <is>
-          <t>saddress</t>
+          <t>shipping_state</t>
         </is>
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>scity</t>
+          <t>shipping_zip</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
         <is>
-          <t>sstate</t>
+          <t>shipping_pin</t>
         </is>
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>szip</t>
+          <t>shipping_phone</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>spin</t>
+          <t>shipping_fax</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>sphone</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>sfax</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>credit_limit</t>
         </is>
